--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コミットキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>323027f6d57f098f8c0efb7f19e983fafa4c4be8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,6 +131,42 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>244a03e0d6c2249613d9de7672fac0f71e30fa1c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミットキー(SHA)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽微なバグ修正</t>
+    <rPh sb="0" eb="2">
+      <t>ケイビ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLに接続できないバグを修正しました。</t>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -475,7 +507,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -520,7 +552,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -553,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -565,10 +597,10 @@
         <v>42598</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(OR(C3="",D3=""),"",C3&amp;D3)</f>
@@ -581,20 +613,44 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="str">
+      <c r="A4">
         <f t="shared" ref="A4:A67" si="1">IF(B4="","",A3+1)</f>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42598</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00010003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -168,6 +168,48 @@
     <rPh sb="13" eb="15">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>45b0480b4e2f954bcb533c6632378c20d85c48b5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページの追加及び，ログインされていない状態の場合には，ログインページへリダイレクトさせる処理を追加しました。</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -214,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +265,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +552,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,8 +564,8 @@
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.625" customWidth="1"/>
-    <col min="10" max="10" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -545,7 +590,7 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -578,7 +623,7 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
@@ -612,7 +657,7 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
@@ -646,21 +691,45 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42598</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030004</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -210,6 +210,28 @@
   </si>
   <si>
     <t>admin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bfb93e18cdb93cb30307cdefb9a3986d990f7dc7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページを新規追加しました。</t>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -552,7 +574,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,15 +753,39 @@
       <c r="I5" t="s">
         <v>30</v>
       </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42598</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030005</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -230,6 +230,79 @@
       <t>シンキ</t>
     </rPh>
     <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>42235935cecf05b8a243ff9d590a57602952649b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能修正</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインページで新規ユーザー登録に際しての注意書きを追加をしました。</t>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>チュウイガ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>faabc44853cb71d3001fd173c7fcf108b685b235</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数ファイルに，トークンに関する関数を追加しました。</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -278,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,6 +363,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,7 +656,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,35 +672,35 @@
     <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -787,25 +869,73 @@
       <c r="I6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42599</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040006</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42599</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040007</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -305,6 +305,41 @@
     <rPh sb="19" eb="21">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e985b1fadd2127b9214948b2405bd9b89d99a1ee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関数ファイルに，暗号化キーに関する関数を追加しました。</t>
+    <rPh sb="0" eb="2">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -656,7 +691,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -937,15 +972,39 @@
       <c r="I8" t="s">
         <v>14</v>
       </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040008</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -340,6 +340,31 @@
   </si>
   <si>
     <t>admin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d6a6a09f2ffcdf30e3e1f9dbc2a67304f5e2f2c8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0009</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規ユーザー登録ページを追加しました。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -691,7 +716,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1006,15 +1031,39 @@
       <c r="I9" t="s">
         <v>49</v>
       </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030009</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$100</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -364,6 +367,41 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c2c8cee695bfccb12a5ec9d29dab8a5eb7b00db1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録がされない重要なバグを修正しました。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要なバグ修正</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,19 +754,20 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="50.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1065,15 +1104,39 @@
       <c r="I10" t="s">
         <v>30</v>
       </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00010010</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1967,6 +2030,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J100"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -402,6 +402,25 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>55dc773cdd47d37c4cfd0cda69189dfc34af6212</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理ができるようになりました。</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -753,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1138,15 +1157,39 @@
       <c r="I11" t="s">
         <v>14</v>
       </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040011</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -421,6 +421,25 @@
     <t>ログイン処理ができるようになりました。</t>
     <rPh sb="4" eb="6">
       <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5ec9f65fa04651d417b26a7380fa398808ca7d26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトページを追加しました。</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -773,7 +792,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1191,15 +1210,39 @@
       <c r="I12" t="s">
         <v>14</v>
       </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030012</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -440,6 +440,30 @@
     <t>ログアウトページを追加しました。</t>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fab7afd9e9ad2c73ed927e9db23a9b012dd7b651</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0013</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページに管理者権限によって，ユーザー一覧が表示されるようになりました。</t>
+    <rPh sb="7" eb="10">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1244,15 +1268,39 @@
       <c r="I13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040013</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -465,6 +465,45 @@
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4e8c3acb88fefa2ba143a0070064a3e6bbf9881f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページのユーザー一覧を降順で並べ替えるように修正しました。</t>
+    <rPh sb="11" eb="13">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,10 +536,94 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -511,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,11 +650,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +975,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,484 +992,508 @@
     <col min="10" max="10" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>42598</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="9" t="str">
         <f>IF(OR(C2="",D2=""),"",C2&amp;D2)</f>
         <v>00030001</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" s="5">
         <f>IF(B3="","",A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>42598</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E66" si="0">IF(OR(C3="",D3=""),"",C3&amp;D3)</f>
         <v>00030002</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A67" si="1">IF(B4="","",A3+1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>42598</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00010003</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="A5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>42598</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00030004</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="A6" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>42598</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00030005</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="A7" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>42599</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040006</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="A8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>42599</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040007</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>42601</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040008</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>42601</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00030009</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>42601</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00010010</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>42601</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040011</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="A13" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>42601</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00030012</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="A14" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>42601</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040013</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00010014</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -504,6 +504,38 @@
   </si>
   <si>
     <t>admin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f1f37473a2d27573c5bfe1e7edae754e1d516eaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録ページをログインしていない場合に、表示させないように修正しました。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -975,7 +1007,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1495,15 +1527,39 @@
       <c r="I15" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42601</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00010015</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -536,6 +536,34 @@
     <rPh sb="32" eb="34">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07959c56956683d67fbee67149b8c1824860a5f7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0016</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録ページを管理者以外がアクセスできないよう変更しました。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1007,7 +1035,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1546,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C16="",D16=""),"",C16&amp;D16)</f>
         <v>00010015</v>
       </c>
       <c r="F16" s="18" t="s">
@@ -1561,18 +1589,42 @@
       <c r="I16" s="18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>00010016</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1582,7 +1634,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1592,7 +1644,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1602,7 +1654,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1612,7 +1664,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1622,7 +1674,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1632,7 +1684,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1642,7 +1694,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1652,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1662,7 +1714,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1672,7 +1724,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1682,7 +1734,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1692,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1702,7 +1754,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1712,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -564,6 +564,32 @@
   </si>
   <si>
     <t>admin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38dbe497f6f7508e642080d45b572b12082b673e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー設定ページを追加しました。</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1035,7 +1061,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1593,7 +1619,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1608,7 +1634,7 @@
         <v>82</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C17="",D17=""),"",C17&amp;D17)</f>
         <v>00010016</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -1623,18 +1649,42 @@
       <c r="I17" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>00030017</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1644,7 +1694,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1654,7 +1704,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1664,7 +1714,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1674,7 +1724,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1684,7 +1734,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1694,7 +1744,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1704,7 +1754,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1714,7 +1764,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1724,7 +1774,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1734,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1744,7 +1794,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1754,7 +1804,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1764,7 +1814,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -589,6 +589,52 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f510026eae36fffbd76ebd08b5ba5e0f9701569c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー削除ページを追加しました。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f510026eae36fffbd76ebd08b5ba5e0f9701569c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録の際に登録者を登録できるようにしました。</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1061,7 +1107,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1714,7 @@
         <v>86</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(C18="",D18=""),"",C18&amp;D18)</f>
         <v>00030017</v>
       </c>
       <c r="F18" s="18" t="s">
@@ -1683,25 +1729,73 @@
       <c r="I18" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030018</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00040019</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -636,6 +636,14 @@
     <rPh sb="13" eb="15">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7c350b90eeb6f46008fad90291020133b6b5cbf1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0018</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -643,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +667,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -668,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -760,13 +786,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,6 +858,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1733,43 +1786,43 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="21">
         <v>42602</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>00030018</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f>IF(B20="","",A19+1)</f>
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1797,15 +1850,39 @@
       <c r="I20" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="J20" s="19" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030018</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -644,6 +644,28 @@
   </si>
   <si>
     <t>0018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e13ab8f5faf58958428df17fc36afdccb0d3f3e1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0019</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー編集ページを追加しました。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -694,7 +716,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -786,22 +808,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -859,22 +872,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,8 +1175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1651,248 +1668,272 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="A15" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>42601</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00010014</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="A16" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>42601</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="5" t="str">
         <f>IF(OR(C16="",D16=""),"",C16&amp;D16)</f>
         <v>00010015</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="A17" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>42602</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="5" t="str">
         <f>IF(OR(C17="",D17=""),"",C17&amp;D17)</f>
         <v>00010016</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>42602</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="5" t="str">
         <f>IF(OR(C18="",D18=""),"",C18&amp;D18)</f>
         <v>00030017</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20">
+    <row r="19" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>42602</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="20" t="str">
+      <c r="E19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>00030018</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="24" t="s">
+      <c r="H19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="21" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="A20" s="5">
         <f>IF(B20="","",A19+1)</f>
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>42602</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00040019</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="20" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>42602</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>00030018</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="J21" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030019</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -666,6 +666,28 @@
   </si>
   <si>
     <t>admin2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7917860fd6cd24d449cb2e88672659a45a1fe8d1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロフィール設定ページを追加しました。</t>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1177,7 +1199,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1935,15 +1957,39 @@
       <c r="I22" s="18" t="s">
         <v>102</v>
       </c>
+      <c r="J22" s="18" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42602</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>00030020</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">

--- a/コミット履歴.xlsx
+++ b/コミット履歴.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -688,6 +688,10 @@
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f4cb82cb7166cf60e99ee5ce96a5441bb11d9f37</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1197,9 +1201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1991,6 +1995,9 @@
       <c r="I23" s="18" t="s">
         <v>14</v>
       </c>
+      <c r="J23" s="18" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
